--- a/output1.xlsx
+++ b/output1.xlsx
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.996039603960396</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01296039603960396</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9909271018857596</v>
+        <v>0.5925925925925927</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01677685851028001</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002296039603960396</v>
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -498,13 +498,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9843430845462193</v>
+        <v>0.577960676726109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02168318999879229</v>
+        <v>0.01463191586648377</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003973725454988397</v>
+        <v>2.407407407407407</v>
       </c>
     </row>
     <row r="5">
@@ -515,13 +515,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9758901347932637</v>
+        <v>0.5751417860607781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02796782075186868</v>
+        <v>0.002818890665330817</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006142044454867625</v>
+        <v>2.422039323273891</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9650808197978519</v>
+        <v>0.5746013654567886</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03598035367209367</v>
+        <v>0.0005404206039894737</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008938826530054494</v>
+        <v>2.424858213939221</v>
       </c>
     </row>
     <row r="7">
@@ -549,13 +549,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9513287607014238</v>
+        <v>0.5744978566511308</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04613437740131235</v>
+        <v>0.000103508805657778</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01253686189726386</v>
+        <v>2.425398634543211</v>
       </c>
     </row>
     <row r="8">
@@ -566,13 +566,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9339469943335338</v>
+        <v>0.5744780347887992</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05890270602907111</v>
+        <v>1.98218623316373e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0171502996373951</v>
+        <v>2.425502143348869</v>
       </c>
     </row>
     <row r="9">
@@ -583,13 +583,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9121600615596872</v>
+        <v>0.5744742390472932</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07479936820001061</v>
+        <v>3.795741506044375e-06</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02304057024030221</v>
+        <v>2.4255219652112</v>
       </c>
     </row>
     <row r="10">
@@ -600,13 +600,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8851386768856486</v>
+        <v>0.5744735121953888</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09434081605404812</v>
+        <v>7.268519044350228e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03052050706030327</v>
+        <v>2.425525760952706</v>
       </c>
     </row>
     <row r="11">
@@ -617,13 +617,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8520675065496516</v>
+        <v>0.5744733730096666</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1179779047846403</v>
+        <v>1.391857221288983e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03995458866570809</v>
+        <v>2.425526487804611</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8122555702495324</v>
+        <v>0.5744733463568362</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1459920506062954</v>
+        <v>2.665283042205812e-08</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05175237914417212</v>
+        <v>2.425526626990333</v>
       </c>
     </row>
     <row r="13">
@@ -651,13 +651,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7652920627972096</v>
+        <v>0.574473341253056</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1783563529979887</v>
+        <v>5.10378022748034e-09</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06635158420480167</v>
+        <v>2.425526653643163</v>
       </c>
     </row>
     <row r="14">
@@ -668,13 +668,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7112347553521332</v>
+        <v>0.5744733402757275</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2145780251432663</v>
+        <v>9.773285601006379e-10</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08418721950460054</v>
+        <v>2.425526658746943</v>
       </c>
     </row>
     <row r="15">
@@ -685,13 +685,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.650793032890068</v>
+        <v>0.5744733400885778</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2535619450910049</v>
+        <v>1.871497341559602e-10</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1056450220189272</v>
+        <v>2.425526659724272</v>
       </c>
     </row>
     <row r="16">
@@ -702,13 +702,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.585440024069759</v>
+        <v>0.5744733400527402</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2935587594022133</v>
+        <v>3.583751095908795e-11</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1310012165280277</v>
+        <v>2.425526659911422</v>
       </c>
     </row>
     <row r="17">
@@ -719,13 +719,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5173762430122064</v>
+        <v>0.5744733400458777</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3322666645195446</v>
+        <v>6.862564873281314e-12</v>
       </c>
       <c r="E17" t="n">
-        <v>0.160357092468249</v>
+        <v>2.425526659947259</v>
       </c>
     </row>
     <row r="18">
@@ -736,13 +736,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4492943109063374</v>
+        <v>0.5744733400445635</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3671219301734591</v>
+        <v>1.31412018801181e-12</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1935837589202034</v>
+        <v>2.425526659954122</v>
       </c>
     </row>
     <row r="19">
@@ -753,13 +753,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3839692437238072</v>
+        <v>0.5744733400443118</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3957348043386434</v>
+        <v>2.516423378757115e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2302959519375493</v>
+        <v>2.425526659955436</v>
       </c>
     </row>
     <row r="20">
@@ -770,13 +770,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3237910284615902</v>
+        <v>0.5744733400442636</v>
       </c>
       <c r="D20" t="n">
-        <v>0.416339539166996</v>
+        <v>4.818727144533974e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2698694323714137</v>
+        <v>2.425526659955688</v>
       </c>
     </row>
     <row r="21">
@@ -787,13 +787,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.270402114570063</v>
+        <v>0.5744733400442544</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4280944991418236</v>
+        <v>9.227434258274629e-15</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3115033862881133</v>
+        <v>2.425526659955736</v>
       </c>
     </row>
     <row r="22">
@@ -804,13 +804,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2245574976180784</v>
+        <v>0.5744733400442527</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4311296661796259</v>
+        <v>1.766971659463268e-15</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3543128362022957</v>
+        <v>2.425526659955745</v>
       </c>
     </row>
     <row r="23">
@@ -821,13 +821,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1862155574255183</v>
+        <v>0.5744733400442523</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4263586397542234</v>
+        <v>3.383593703251331e-16</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3974258028202583</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="24">
@@ -838,13 +838,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.154772146825511</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4151661863788084</v>
+        <v>6.479281253531642e-17</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4400616667956807</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="25">
@@ -855,13 +855,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1293241618927552</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3990975526736834</v>
+        <v>1.240724780934144e-17</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4815782854335615</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="26">
@@ -872,13 +872,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1088833870361319</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3796285722629383</v>
+        <v>2.375877696596369e-18</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5214880407009299</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="27">
@@ -889,13 +889,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.09251299307031816</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3580361090024582</v>
+        <v>4.5495946530012e-19</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5594508979272237</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="28">
@@ -906,13 +906,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07939497640850901</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3353505147640216</v>
+        <v>8.712069453856902e-20</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5952545088274696</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="29">
@@ -923,13 +923,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06885036404879778</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3123600756473306</v>
+        <v>1.668283879284893e-20</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6287895603038717</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="30">
@@ -940,13 +940,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06033309477250918</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2896413373588862</v>
+        <v>3.194615374249247e-21</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6600255678686048</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="31">
@@ -957,13 +957,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.05341231922521809</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2675979791702887</v>
+        <v>6.117404547338948e-22</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6889897016044934</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="32">
@@ -974,13 +974,13 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0477517138044392</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2464987866740387</v>
+        <v>1.171428607570567e-22</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7157494995215222</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="33">
@@ -991,13 +991,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04309003478883516</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2265105870222389</v>
+        <v>2.243181682714838e-23</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7403993781889261</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="34">
@@ -1008,13 +1008,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03922455000672516</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207725013102125</v>
+        <v>4.295493578650931e-24</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7630504368911499</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="35">
@@ -1025,13 +1025,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03599765093184518</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1901794108667924</v>
+        <v>8.225488477554127e-25</v>
       </c>
       <c r="E35" t="n">
-        <v>0.7838229382013624</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="36">
@@ -1042,13 +1042,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>0.03328635903211973</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1738727616798386</v>
+        <v>1.575107946398677e-25</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8028408792880416</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="37">
@@ -1059,13 +1059,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0309942437168004</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1587776008271741</v>
+        <v>3.016191742992969e-26</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8202281554560255</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="38">
@@ -1076,13 +1076,13 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02904525692202564</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1448488275392315</v>
+        <v>5.775739149370219e-27</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8361059155387429</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="39">
@@ -1093,13 +1093,13 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02737905042272617</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1320301512846078</v>
+        <v>1.106002720121019e-27</v>
       </c>
       <c r="E39" t="n">
-        <v>0.850590798292666</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="40">
@@ -1110,13 +1110,13 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>0.02594742263288798</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1202587639459852</v>
+        <v>2.117896922419833e-28</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8637938134211268</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="41">
@@ -1127,13 +1127,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>0.02471161868302058</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1094686915012541</v>
+        <v>4.055584396306547e-29</v>
       </c>
       <c r="E41" t="n">
-        <v>0.8758196898157253</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="42">
@@ -1144,13 +1144,13 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>0.02364027271782921</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09959316831632004</v>
+        <v>7.766083713258584e-30</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8867665589658508</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="43">
@@ -1161,13 +1161,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02270783324858942</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09056629095392782</v>
+        <v>1.487136016606309e-30</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8967258757974828</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="44">
@@ -1178,13 +1178,13 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02189335236426267</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08232414274286178</v>
+        <v>2.847733315199769e-31</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9057825048928755</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="45">
@@ -1195,13 +1195,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02117954980380512</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07480553102903316</v>
+        <v>5.453156230460344e-32</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9140149191671617</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="46">
@@ -1212,13 +1212,13 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>0.02055208545923898</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06795244227069598</v>
+        <v>1.044230957831893e-32</v>
       </c>
       <c r="E46" t="n">
-        <v>0.921495472270065</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="47">
@@ -1229,13 +1229,13 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01999899064707607</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06171029285578929</v>
+        <v>1.999609487077654e-33</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9282907164971346</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="48">
@@ -1246,13 +1246,13 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01951022091652111</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D48" t="n">
-        <v>0.05602803330076531</v>
+        <v>3.829074469418913e-34</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9344617457827135</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="49">
@@ -1263,13 +1263,13 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01907730237900978</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D49" t="n">
-        <v>0.05085814850820012</v>
+        <v>7.332337332417521e-35</v>
       </c>
       <c r="E49" t="n">
-        <v>0.94006454911279</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="50">
@@ -1280,13 +1280,13 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01869305038790977</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D50" t="n">
-        <v>0.04615658564848012</v>
+        <v>1.404077439228352e-35</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9451503639636101</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="51">
@@ -1297,13 +1297,13 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>0.01835134449434109</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D51" t="n">
-        <v>0.04188263297720078</v>
+        <v>2.688683520647639e-36</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9497660225284581</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="52">
@@ -1314,13 +1314,13 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>0.01804694741469964</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03799876675912216</v>
+        <v>5.148590008094628e-37</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9539542858261781</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="53">
@@ -1331,13 +1331,13 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0177753586045906</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D53" t="n">
-        <v>0.03447047889331898</v>
+        <v>9.859092328228613e-38</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9577541625020903</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="54">
@@ -1348,13 +1348,13 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>0.01753269518930319</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03126609441927449</v>
+        <v>1.887928566534051e-38</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9612012103914223</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="55">
@@ -1365,13 +1365,13 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>0.01731559463357523</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D55" t="n">
-        <v>0.02835658553307501</v>
+        <v>3.61521543127258e-39</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9643278198333497</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="56">
@@ -1382,13 +1382,13 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01712113477603739</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02571538683730534</v>
+        <v>6.922816279275603e-40</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9671634783866572</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="57">
@@ -1399,13 +1399,13 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01694676780421187</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D57" t="n">
-        <v>0.02331821512540033</v>
+        <v>1.325657796822726e-40</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9697350170703877</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="58">
@@ -1416,13 +1416,13 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01679026547655293</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D58" t="n">
-        <v>0.02114289594051923</v>
+        <v>2.53851687432152e-41</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9720668385829278</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="59">
@@ -1433,13 +1433,13 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01664967346238087</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01916919836063937</v>
+        <v>4.861034225167262e-42</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9741811281769797</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="60">
@@ -1450,13 +1450,13 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>0.01652327310862236</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01737867887833395</v>
+        <v>9.308448558004205e-43</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9760980480130436</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="61">
@@ -1467,13 +1467,13 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01640954928391988</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01575453481520303</v>
+        <v>1.782485177915592e-43</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9778359159008769</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="62">
@@ -1484,13 +1484,13 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01630716321837718</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D62" t="n">
-        <v>0.01428146739922542</v>
+        <v>3.413300712455145e-44</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9794113693823973</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="63">
@@ -1501,13 +1501,13 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>0.01621492946793081</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D63" t="n">
-        <v>0.01294555440974926</v>
+        <v>6.536167536198445e-45</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9808395161223198</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="64">
@@ -1518,13 +1518,13 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01613179629894968</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01173413213775546</v>
+        <v>1.251617998536244e-45</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9821340715632947</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="65">
@@ -1535,13 +1535,13 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01605682892097296</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D65" t="n">
-        <v>0.01063568630195664</v>
+        <v>2.396737240262059e-46</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9833074847770702</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="66">
@@ -1552,13 +1552,13 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01598919510100953</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D66" t="n">
-        <v>0.009639751491724401</v>
+        <v>4.58953882540596e-47</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9843710534072658</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="67">
@@ -1569,13 +1569,13 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01592815277731589</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D67" t="n">
-        <v>0.008736818666245596</v>
+        <v>8.788558994312453e-48</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9853350285564383</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="68">
@@ -1586,13 +1586,13 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>0.01587303935850256</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D68" t="n">
-        <v>0.007918250218434369</v>
+        <v>1.68293094654621e-48</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9862087104230628</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="69">
@@ -1603,13 +1603,13 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01582326244865397</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D69" t="n">
-        <v>0.007176202106439518</v>
+        <v>3.222663206420788e-49</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9870005354449062</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="70">
@@ -1620,13 +1620,13 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>0.01577829178357881</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D70" t="n">
-        <v>0.006503552560870725</v>
+        <v>6.17111365343423e-50</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9877181556555501</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="71">
@@ -1637,13 +1637,13 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01573765219944604</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D71" t="n">
-        <v>0.005893836888916429</v>
+        <v>1.181713424093683e-50</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9883685109116371</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="72">
@@ -1654,13 +1654,13 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>0.01570091748456365</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D72" t="n">
-        <v>0.005341187914907175</v>
+        <v>2.26287619238076e-51</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9889578946005287</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="73">
@@ -1671,13 +1671,13 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0156677049892284</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D73" t="n">
-        <v>0.004840281618751707</v>
+        <v>4.333206814478651e-52</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9894920133920194</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="74">
@@ -1688,13 +1688,13 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01563767088844923</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D74" t="n">
-        <v>0.004386287557655699</v>
+        <v>8.297705972720218e-53</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9899760415538946</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="75">
@@ -1705,13 +1705,13 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01561050600874677</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D75" t="n">
-        <v>0.003974823681592593</v>
+        <v>1.588936954951241e-53</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9904146703096602</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="76">
@@ -1722,13 +1722,13 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>0.01558593214381005</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D76" t="n">
-        <v>0.00360191517837005</v>
+        <v>3.042673065435277e-54</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9908121526778195</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="77">
@@ -1739,13 +1739,13 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01556369879507428</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D77" t="n">
-        <v>0.003263957009268821</v>
+        <v>5.826448528544292e-55</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9911723441956565</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="78">
@@ -1756,13 +1756,13 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>0.01554358028268919</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D78" t="n">
-        <v>0.002957679820727021</v>
+        <v>1.115713115596253e-55</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9914987398965833</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="79">
@@ -1773,13 +1773,13 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>0.01552537318021634</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D79" t="n">
-        <v>0.002680118941127174</v>
+        <v>2.136491466825861e-56</v>
       </c>
       <c r="E79" t="n">
-        <v>0.991794507878656</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="80">
@@ -1790,13 +1790,13 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01550889403299718</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D80" t="n">
-        <v>0.002428586194233612</v>
+        <v>4.091191296411654e-57</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9920625197727687</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="81">
@@ -1807,13 +1807,13 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01549397732569565</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D81" t="n">
-        <v>0.002200644282111783</v>
+        <v>7.834267762698588e-58</v>
       </c>
       <c r="E81" t="n">
-        <v>0.9923053783921921</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="82">
@@ -1824,13 +1824,13 @@
         <v>81</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01548047366921686</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D82" t="n">
-        <v>0.001994083510379401</v>
+        <v>1.500192656146156e-58</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9925254428204033</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="83">
@@ -1841,13 +1841,13 @@
         <v>82</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0154682481811865</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D83" t="n">
-        <v>0.001806900647371817</v>
+        <v>2.872735619620468e-59</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9927248511714413</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="84">
@@ -1858,13 +1858,13 @@
         <v>83</v>
       </c>
       <c r="C84" t="n">
-        <v>0.01545717903756183</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D84" t="n">
-        <v>0.001637279726259306</v>
+        <v>5.501033421558218e-60</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9929055412361785</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="85">
@@ -1875,13 +1875,13 @@
         <v>84</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01544715617583377</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D85" t="n">
-        <v>0.001483574615361439</v>
+        <v>1.053399014459203e-60</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9930692692088045</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="86">
@@ -1892,13 +1892,13 @@
         <v>85</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01543808013275179</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D86" t="n">
-        <v>0.001344293196907271</v>
+        <v>2.017165500785674e-61</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9932176266703406</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="87">
@@ -1909,13 +1909,13 @@
         <v>86</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01542986100162475</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D87" t="n">
-        <v>0.001218083008343581</v>
+        <v>3.862692675527943e-62</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9933520559900314</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="88">
@@ -1926,13 +1926,13 @@
         <v>87</v>
       </c>
       <c r="C88" t="n">
-        <v>0.01542241749607736</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D88" t="n">
-        <v>0.001103718213056622</v>
+        <v>7.396713209583352e-63</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9934738642908657</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="89">
@@ -1943,13 +1943,13 @@
         <v>88</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01541567610871902</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D89" t="n">
-        <v>0.00100008777910929</v>
+        <v>1.416404847619596e-63</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9935842361121714</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="90">
@@ -1960,13 +1960,13 @@
         <v>89</v>
       </c>
       <c r="C90" t="n">
-        <v>0.01540957035454752</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0009061847553698605</v>
+        <v>2.712289412222998e-64</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9936842448900823</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="91">
@@ -1977,13 +1977,13 @@
         <v>90</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01540404009009521</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D91" t="n">
-        <v>0.0008210965442851875</v>
+        <v>5.193793192688026e-65</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9937748633656194</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="92">
@@ -1994,13 +1994,13 @@
         <v>91</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01539903090035818</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0007439960795937014</v>
+        <v>9.9456524096753e-66</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9938569730200479</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="93">
@@ -2011,13 +2011,13 @@
         <v>92</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0153944935464495</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D93" t="n">
-        <v>0.000674133825543008</v>
+        <v>1.904504052901779e-66</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9939313726280073</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="94">
@@ -2028,13 +2028,13 @@
         <v>93</v>
       </c>
       <c r="C94" t="n">
-        <v>0.01539038346770623</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0006108305217319806</v>
+        <v>3.646956014660999e-67</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9939987860105617</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="95">
@@ -2045,13 +2045,13 @@
         <v>94</v>
       </c>
       <c r="C95" t="n">
-        <v>0.01538666033267128</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0005534706045937268</v>
+        <v>6.983596675789262e-68</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9940598690627349</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="96">
@@ -2062,13 +2062,13 @@
         <v>95</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0153832876339794</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D96" t="n">
-        <v>0.000501496242826236</v>
+        <v>1.337296702620865e-68</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9941152161231943</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="97">
@@ -2079,13 +2079,13 @@
         <v>96</v>
       </c>
       <c r="C97" t="n">
-        <v>0.01538023232271178</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0004544019298112386</v>
+        <v>2.56080434461591e-69</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9941653657474769</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="98">
@@ -2096,13 +2096,13 @@
         <v>97</v>
       </c>
       <c r="C98" t="n">
-        <v>0.01537746447825697</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0004117295812849208</v>
+        <v>4.903712750171113e-70</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9942108059404581</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="99">
@@ -2113,13 +2113,13 @@
         <v>98</v>
       </c>
       <c r="C99" t="n">
-        <v>0.01537495701013386</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0003730640912795402</v>
+        <v>9.390174140694618e-71</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9942519788985865</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
     <row r="100">
@@ -2130,13 +2130,13 @@
         <v>99</v>
       </c>
       <c r="C100" t="n">
-        <v>0.01537268538860299</v>
+        <v>0.5744733400442522</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0003380293036824565</v>
+        <v>1.798134900734001e-71</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9942892853077144</v>
+        <v>2.425526659955747</v>
       </c>
     </row>
   </sheetData>
